--- a/files/dispersal_multipliers.xlsx
+++ b/files/dispersal_multipliers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="dispersal_dec1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="dispersal_dec2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="dispersal_mtx_2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="dispersal_mtx_3" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="22">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -143,8 +143,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92E285"/>
-        <bgColor rgb="FF81D41A"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -161,8 +161,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF92E285"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,12 +200,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,19 +229,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +274,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF92E285"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -298,14 +302,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -430,11 +434,11 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="11.53"/>
   </cols>
@@ -481,8 +485,8 @@
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
@@ -525,8 +529,8 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>9</v>
@@ -560,8 +564,8 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -577,8 +581,8 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -595,8 +599,8 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>9</v>
@@ -630,8 +634,8 @@
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
@@ -668,8 +672,8 @@
       <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>11</v>
@@ -682,20 +686,20 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -703,8 +707,8 @@
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>11</v>
@@ -720,23 +724,23 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -835,19 +839,19 @@
       <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -873,11 +877,11 @@
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>9</v>
@@ -905,11 +909,11 @@
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>11</v>
+      <c r="G15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>9</v>
@@ -922,8 +926,8 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -937,11 +941,11 @@
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>11</v>
+      <c r="G16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>9</v>
@@ -969,11 +973,11 @@
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>11</v>
+      <c r="G17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>9</v>
@@ -986,61 +990,61 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>11</v>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>11</v>
@@ -1065,11 +1069,11 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>11</v>
+      <c r="G20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
@@ -1097,8 +1101,8 @@
       <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
+      <c r="G21" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>11</v>
@@ -1156,23 +1160,23 @@
       <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>11</v>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>10</v>
@@ -1185,125 +1189,125 @@
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0</v>
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0</v>
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>10</v>
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>11</v>
@@ -1313,61 +1317,61 @@
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0</v>
+      <c r="B29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>11</v>
+      <c r="I30" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>11</v>
@@ -1377,26 +1381,26 @@
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>11</v>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>10</v>
@@ -1412,20 +1416,20 @@
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0</v>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>0</v>
+      <c r="G32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>11</v>
@@ -1455,11 +1459,11 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1504,8 +1508,8 @@
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
@@ -1548,8 +1552,8 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>9</v>
@@ -1583,8 +1587,8 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -1600,8 +1604,8 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1</v>
@@ -1618,8 +1622,8 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>9</v>
@@ -1653,8 +1657,8 @@
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
@@ -1691,8 +1695,8 @@
       <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>11</v>
@@ -1705,20 +1709,20 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1726,8 +1730,8 @@
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>11</v>
@@ -1743,23 +1747,23 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -1861,19 +1865,19 @@
       <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1899,11 +1903,11 @@
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>9</v>
@@ -1931,11 +1935,11 @@
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>11</v>
+      <c r="G15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>9</v>
@@ -1948,8 +1952,8 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -1963,11 +1967,11 @@
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>11</v>
+      <c r="G16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>9</v>
@@ -1995,11 +1999,11 @@
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>11</v>
+      <c r="G17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>9</v>
@@ -2012,61 +2016,61 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>11</v>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>11</v>
@@ -2091,11 +2095,11 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>11</v>
+      <c r="G20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
@@ -2123,8 +2127,8 @@
       <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
+      <c r="G21" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>11</v>
@@ -2185,23 +2189,23 @@
       <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>11</v>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>10</v>
@@ -2214,93 +2218,93 @@
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0</v>
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>10</v>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>11</v>
@@ -2310,29 +2314,29 @@
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>10</v>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>11</v>
@@ -2342,61 +2346,61 @@
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0</v>
+      <c r="B29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>11</v>
+      <c r="I30" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>11</v>
@@ -2406,26 +2410,26 @@
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>11</v>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>10</v>
@@ -2441,11 +2445,11 @@
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>0</v>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>11</v>
@@ -2453,8 +2457,8 @@
       <c r="F32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>0</v>
+      <c r="G32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>11</v>
